--- a/electronics/sensor-board/sensor-board BOM.xlsx
+++ b/electronics/sensor-board/sensor-board BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NicksFiles\Documents\Penn State\Rocketry\repos\avionics\electronics\sensor-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9405157E-52B6-4E1D-904E-18C6DE8E767A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA416474-1F4E-4303-9A9C-5CCC95F5A8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{505F83C6-C122-45A2-BBF9-74BC7C5786B2}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>4 pin molex</t>
+  </si>
+  <si>
+    <t>Thermocouple PCB connector</t>
+  </si>
+  <si>
+    <t>https://evosensors.com/collections/miniature-pcb-flat-mounting/products/k1x-femx-con-fp-x-pccx</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1101,7 @@
   <dimension ref="D4:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1210,10 @@
         <v>7</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>74</v>
+        <v>161</v>
+      </c>
+      <c r="H12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">

--- a/electronics/sensor-board/sensor-board BOM.xlsx
+++ b/electronics/sensor-board/sensor-board BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NicksFiles\Documents\Penn State\Rocketry\repos\avionics\electronics\sensor-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA416474-1F4E-4303-9A9C-5CCC95F5A8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D808DDCD-FFC4-4A1C-B845-C76FB19B56F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{505F83C6-C122-45A2-BBF9-74BC7C5786B2}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -535,6 +535,21 @@
   </si>
   <si>
     <t>https://evosensors.com/collections/miniature-pcb-flat-mounting/products/k1x-femx-con-fp-x-pccx</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>only 1 f.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>14 SO (14 pin)</t>
+  </si>
+  <si>
+    <t>SOP (14 pin) (r-pdso-g14)</t>
   </si>
 </sst>
 </file>
@@ -558,7 +573,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -683,11 +698,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -713,13 +741,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -737,7 +768,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,7 +809,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7F49FF8A-8D44-48F1-98C0-5613516C4CF6}" name="Footprint"/>
     <tableColumn id="2" xr3:uid="{903445F8-CE4D-4E9D-8C8A-EEE82F904550}" name="Quantity"/>
-    <tableColumn id="3" xr3:uid="{380AC75C-08BA-4F5B-896B-FAE62C1E8567}" name="Name" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{380AC75C-08BA-4F5B-896B-FAE62C1E8567}" name="Name" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -789,13 +820,13 @@
   <autoFilter ref="A1:H65" xr:uid="{6F0C54DC-A20B-4DCC-BDE3-11135E5C78F9}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{294D7A5A-50ED-4A30-820D-4AFA2975D46C}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F52B90D3-E1F7-4B29-AF89-F6EF2799FF56}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6A28433B-AD2A-4CD4-ADFB-CB636A8D8C91}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F52B90D3-E1F7-4B29-AF89-F6EF2799FF56}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6A28433B-AD2A-4CD4-ADFB-CB636A8D8C91}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{52574473-85C6-4D25-8582-1FBC62840560}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{2A31BA09-0D58-412C-9B92-01401E8B7DCA}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{2567F3FC-82D0-4D85-B5F1-16F609AC3DC9}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{0E8842C1-05A5-4986-8BEA-3E3B7A5483FA}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{8B08833F-6C31-48E9-9739-27C8006F05D1}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2A31BA09-0D58-412C-9B92-01401E8B7DCA}" uniqueName="5" name="Designation" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2567F3FC-82D0-4D85-B5F1-16F609AC3DC9}" uniqueName="6" name="Supplier and ref" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0E8842C1-05A5-4986-8BEA-3E3B7A5483FA}" uniqueName="7" name="Column1" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8B08833F-6C31-48E9-9739-27C8006F05D1}" uniqueName="8" name="_1" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1098,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E80F7-7C45-4612-88C5-BC9D403A3A3D}">
-  <dimension ref="D4:I38"/>
+  <dimension ref="C4:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1142,7 @@
     <col min="6" max="6" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>157</v>
       </c>
@@ -1122,7 +1153,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
       <c r="D5" s="12" t="s">
         <v>56</v>
       </c>
@@ -1136,7 +1170,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1147,7 +1181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1158,7 +1192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1203,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1180,7 +1214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1191,7 +1225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1202,7 +1236,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1253,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D13" s="6" t="s">
         <v>109</v>
       </c>
@@ -1227,7 +1264,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
         <v>141</v>
       </c>
@@ -1238,9 +1275,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D15" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
@@ -1249,7 +1286,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>76</v>
       </c>
@@ -1260,7 +1300,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
         <v>93</v>
       </c>
@@ -1271,7 +1311,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" s="9" t="s">
         <v>102</v>
       </c>
@@ -1282,7 +1325,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1336,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
@@ -1315,7 +1358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1337,7 +1380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1402,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D30" s="6" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D31" s="6" t="s">
         <v>9</v>
       </c>
@@ -1425,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1479,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="9" t="s">
         <v>9</v>
       </c>
@@ -1447,31 +1490,37 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="4">
         <v>15</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
       <c r="D35" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="7">
         <v>6</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D36" s="6" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="E36" s="7">
         <v>4</v>
@@ -1480,7 +1529,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
       <c r="D37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +1543,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
       <c r="D38" s="9" t="s">
         <v>119</v>
       </c>

--- a/electronics/sensor-board/sensor-board BOM.xlsx
+++ b/electronics/sensor-board/sensor-board BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NicksFiles\Documents\Penn State\Rocketry\repos\avionics\electronics\sensor-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D808DDCD-FFC4-4A1C-B845-C76FB19B56F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03AA184-790E-41CF-81A6-3ECDE948647C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{505F83C6-C122-45A2-BBF9-74BC7C5786B2}"/>
   </bookViews>
@@ -556,10 +556,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -712,10 +720,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -744,8 +753,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -1131,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E80F7-7C45-4612-88C5-BC9D403A3A3D}">
   <dimension ref="C4:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1260,7 @@
       <c r="F12" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="16" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1558,9 +1569,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{EB5CFB9F-A650-420F-BC44-A88879844638}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
